--- a/Model/BayesLSTM/Univariate/result/Manufacturing/JPN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>20.19401741027832</v>
+        <v>21.86666488647461</v>
       </c>
       <c r="C2" t="n">
-        <v>19.43971824645996</v>
+        <v>20.99336624145508</v>
       </c>
       <c r="D2" t="n">
-        <v>20.94831657409668</v>
+        <v>22.73996353149414</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>20.29869079589844</v>
+        <v>22.0197582244873</v>
       </c>
       <c r="C3" t="n">
-        <v>19.76901245117188</v>
+        <v>20.93624687194824</v>
       </c>
       <c r="D3" t="n">
-        <v>20.828369140625</v>
+        <v>23.10326957702637</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>20.28629875183105</v>
+        <v>22.04645729064941</v>
       </c>
       <c r="C4" t="n">
-        <v>19.71793556213379</v>
+        <v>21.08113098144531</v>
       </c>
       <c r="D4" t="n">
-        <v>20.85466194152832</v>
+        <v>23.01178359985352</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>20.3518009185791</v>
+        <v>22.0189323425293</v>
       </c>
       <c r="C5" t="n">
-        <v>19.89294624328613</v>
+        <v>20.92922019958496</v>
       </c>
       <c r="D5" t="n">
-        <v>20.81065559387207</v>
+        <v>23.10864448547363</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>20.29437255859375</v>
+        <v>22.13110160827637</v>
       </c>
       <c r="C6" t="n">
-        <v>19.81650352478027</v>
+        <v>21.1217098236084</v>
       </c>
       <c r="D6" t="n">
-        <v>20.77224159240723</v>
+        <v>23.14049339294434</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>20.38399124145508</v>
+        <v>22.13273239135742</v>
       </c>
       <c r="C7" t="n">
-        <v>19.75413131713867</v>
+        <v>21.16022109985352</v>
       </c>
       <c r="D7" t="n">
-        <v>21.01385116577148</v>
+        <v>23.10524368286133</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>20.44560623168945</v>
+        <v>22.01411437988281</v>
       </c>
       <c r="C8" t="n">
-        <v>19.64898872375488</v>
+        <v>20.88143157958984</v>
       </c>
       <c r="D8" t="n">
-        <v>21.24222373962402</v>
+        <v>23.14679718017578</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>20.41858100891113</v>
+        <v>22.01719665527344</v>
       </c>
       <c r="C9" t="n">
-        <v>19.82163429260254</v>
+        <v>20.95151329040527</v>
       </c>
       <c r="D9" t="n">
-        <v>21.01552772521973</v>
+        <v>23.0828800201416</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>20.30191993713379</v>
+        <v>22.04574012756348</v>
       </c>
       <c r="C10" t="n">
-        <v>19.59008598327637</v>
+        <v>20.99967575073242</v>
       </c>
       <c r="D10" t="n">
-        <v>21.01375389099121</v>
+        <v>23.09180450439453</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>20.46527862548828</v>
+        <v>22.06279945373535</v>
       </c>
       <c r="C11" t="n">
-        <v>20.13583755493164</v>
+        <v>20.93424606323242</v>
       </c>
       <c r="D11" t="n">
-        <v>20.79471969604492</v>
+        <v>23.19135284423828</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>20.41291046142578</v>
+        <v>22.10383224487305</v>
       </c>
       <c r="C12" t="n">
-        <v>19.96086692810059</v>
+        <v>21.24323463439941</v>
       </c>
       <c r="D12" t="n">
-        <v>20.86495399475098</v>
+        <v>22.96442985534668</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>20.40163993835449</v>
+        <v>22.18166542053223</v>
       </c>
       <c r="C13" t="n">
-        <v>19.8481388092041</v>
+        <v>21.44839668273926</v>
       </c>
       <c r="D13" t="n">
-        <v>20.95514106750488</v>
+        <v>22.9149341583252</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>20.38177108764648</v>
+        <v>22.10955619812012</v>
       </c>
       <c r="C14" t="n">
-        <v>19.85289764404297</v>
+        <v>21.41743850708008</v>
       </c>
       <c r="D14" t="n">
-        <v>20.91064453125</v>
+        <v>22.80167388916016</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>20.40665054321289</v>
+        <v>22.16072463989258</v>
       </c>
       <c r="C15" t="n">
-        <v>19.85062599182129</v>
+        <v>21.14222145080566</v>
       </c>
       <c r="D15" t="n">
-        <v>20.96267509460449</v>
+        <v>23.17922782897949</v>
       </c>
     </row>
     <row r="16">
@@ -659,83 +659,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4373607635498</v>
+        <v>22.06787109375</v>
       </c>
       <c r="C16" t="n">
-        <v>20.03649520874023</v>
+        <v>21.04017066955566</v>
       </c>
       <c r="D16" t="n">
-        <v>20.83822631835938</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20.21633529663086</v>
-      </c>
-      <c r="C17" t="n">
-        <v>19.6656379699707</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20.76703262329102</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="n">
-        <v>20.60837554931641</v>
-      </c>
-      <c r="C18" t="n">
-        <v>19.85784339904785</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.35890769958496</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="n">
-        <v>20.29943656921387</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19.60392951965332</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20.99494361877441</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20.43537712097168</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.91060256958008</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.96015167236328</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20.45680809020996</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19.95931434631348</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.95430183410645</v>
+        <v>23.09557151794434</v>
       </c>
     </row>
   </sheetData>
@@ -781,72 +711,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>20.81896228790283</v>
+        <v>21.79874992370605</v>
       </c>
       <c r="C2" t="n">
-        <v>20.24166070778515</v>
+        <v>20.74057006835938</v>
       </c>
       <c r="D2" t="n">
-        <v>21.39626386802052</v>
+        <v>22.85692977905273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>19.87656555175781</v>
+        <v>21.94144821166992</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6751025262495</v>
+        <v>21.07357788085938</v>
       </c>
       <c r="D3" t="n">
-        <v>20.07802857726613</v>
+        <v>22.80931854248047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>21.03698863983154</v>
+        <v>21.70375061035156</v>
       </c>
       <c r="C4" t="n">
-        <v>20.19280297733318</v>
+        <v>20.87251472473145</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8811743023299</v>
+        <v>22.53498649597168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>19.47519645690918</v>
+        <v>21.73335647583008</v>
       </c>
       <c r="C5" t="n">
-        <v>18.86195047021639</v>
+        <v>20.66482925415039</v>
       </c>
       <c r="D5" t="n">
-        <v>20.08844244360197</v>
+        <v>22.80188369750977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>20.32541980743408</v>
+        <v>21.73361587524414</v>
       </c>
       <c r="C6" t="n">
-        <v>19.58524800868376</v>
+        <v>20.71702575683594</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0655916061844</v>
+        <v>22.75020599365234</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +825,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>20.84690475463867</v>
+        <v>21.68791961669922</v>
       </c>
       <c r="C2" t="n">
-        <v>20.01228141784668</v>
+        <v>20.27813529968262</v>
       </c>
       <c r="D2" t="n">
-        <v>21.68152809143066</v>
+        <v>23.09770393371582</v>
       </c>
     </row>
     <row r="3">
@@ -909,13 +839,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>20.72878456115723</v>
+        <v>21.87813949584961</v>
       </c>
       <c r="C3" t="n">
-        <v>19.35345649719238</v>
+        <v>20.11534309387207</v>
       </c>
       <c r="D3" t="n">
-        <v>22.10411262512207</v>
+        <v>23.64093589782715</v>
       </c>
     </row>
     <row r="4">
@@ -923,13 +853,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>20.84789085388184</v>
+        <v>21.96053886413574</v>
       </c>
       <c r="C4" t="n">
-        <v>19.47819709777832</v>
+        <v>20.01092147827148</v>
       </c>
       <c r="D4" t="n">
-        <v>22.21758460998535</v>
+        <v>23.91015625</v>
       </c>
     </row>
     <row r="5">
@@ -937,13 +867,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>20.88778877258301</v>
+        <v>21.94818496704102</v>
       </c>
       <c r="C5" t="n">
-        <v>19.77871131896973</v>
+        <v>19.95617294311523</v>
       </c>
       <c r="D5" t="n">
-        <v>21.99686622619629</v>
+        <v>23.9401969909668</v>
       </c>
     </row>
     <row r="6">
@@ -951,13 +881,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>20.96184158325195</v>
+        <v>21.9046688079834</v>
       </c>
       <c r="C6" t="n">
-        <v>20.14767837524414</v>
+        <v>20.02289199829102</v>
       </c>
       <c r="D6" t="n">
-        <v>21.77600479125977</v>
+        <v>23.78644561767578</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +895,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>20.88827705383301</v>
+        <v>21.73960494995117</v>
       </c>
       <c r="C7" t="n">
-        <v>20.17937850952148</v>
+        <v>20.16841506958008</v>
       </c>
       <c r="D7" t="n">
-        <v>21.59717559814453</v>
+        <v>23.31079483032227</v>
       </c>
     </row>
     <row r="8">
@@ -979,13 +909,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>20.78190612792969</v>
+        <v>21.78520584106445</v>
       </c>
       <c r="C8" t="n">
-        <v>20.21035385131836</v>
+        <v>20.22601318359375</v>
       </c>
       <c r="D8" t="n">
-        <v>21.35345840454102</v>
+        <v>23.34439849853516</v>
       </c>
     </row>
     <row r="9">
@@ -993,13 +923,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>20.68167304992676</v>
+        <v>21.40405082702637</v>
       </c>
       <c r="C9" t="n">
-        <v>20.13863945007324</v>
+        <v>19.48688697814941</v>
       </c>
       <c r="D9" t="n">
-        <v>21.22470664978027</v>
+        <v>23.32121467590332</v>
       </c>
     </row>
     <row r="10">
@@ -1007,13 +937,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>20.61138343811035</v>
+        <v>21.37572860717773</v>
       </c>
       <c r="C10" t="n">
-        <v>19.74820137023926</v>
+        <v>19.49313354492188</v>
       </c>
       <c r="D10" t="n">
-        <v>21.47456550598145</v>
+        <v>23.25832366943359</v>
       </c>
     </row>
     <row r="11">
@@ -1021,13 +951,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>20.68613052368164</v>
+        <v>21.31950378417969</v>
       </c>
       <c r="C11" t="n">
-        <v>20.07327270507812</v>
+        <v>19.11152648925781</v>
       </c>
       <c r="D11" t="n">
-        <v>21.29898834228516</v>
+        <v>23.52748107910156</v>
       </c>
     </row>
     <row r="12">
@@ -1035,13 +965,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5782356262207</v>
+        <v>21.57696342468262</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8935718536377</v>
+        <v>19.62156867980957</v>
       </c>
       <c r="D12" t="n">
-        <v>21.26289939880371</v>
+        <v>23.53235816955566</v>
       </c>
     </row>
     <row r="13">
@@ -1049,13 +979,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>20.63729476928711</v>
+        <v>21.4676513671875</v>
       </c>
       <c r="C13" t="n">
-        <v>19.66330909729004</v>
+        <v>19.6182918548584</v>
       </c>
       <c r="D13" t="n">
-        <v>21.61128044128418</v>
+        <v>23.3170108795166</v>
       </c>
     </row>
     <row r="14">
@@ -1063,13 +993,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6702880859375</v>
+        <v>21.42496681213379</v>
       </c>
       <c r="C14" t="n">
-        <v>19.76868438720703</v>
+        <v>19.55264854431152</v>
       </c>
       <c r="D14" t="n">
-        <v>21.57189178466797</v>
+        <v>23.29728507995605</v>
       </c>
     </row>
     <row r="15">
@@ -1077,13 +1007,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>20.62601470947266</v>
+        <v>21.44132614135742</v>
       </c>
       <c r="C15" t="n">
-        <v>19.67244911193848</v>
+        <v>19.63106536865234</v>
       </c>
       <c r="D15" t="n">
-        <v>21.57958030700684</v>
+        <v>23.2515869140625</v>
       </c>
     </row>
     <row r="16">
@@ -1091,13 +1021,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>20.62092590332031</v>
+        <v>21.76676559448242</v>
       </c>
       <c r="C16" t="n">
-        <v>19.85774421691895</v>
+        <v>20.32721710205078</v>
       </c>
       <c r="D16" t="n">
-        <v>21.38410758972168</v>
+        <v>23.20631408691406</v>
       </c>
     </row>
     <row r="17">
@@ -1105,13 +1035,13 @@
         <v>2017</v>
       </c>
       <c r="B17" t="n">
-        <v>20.66518020629883</v>
+        <v>21.96019172668457</v>
       </c>
       <c r="C17" t="n">
-        <v>19.4988842010498</v>
+        <v>20.02728080749512</v>
       </c>
       <c r="D17" t="n">
-        <v>21.83147621154785</v>
+        <v>23.89310264587402</v>
       </c>
     </row>
     <row r="18">
@@ -1119,13 +1049,13 @@
         <v>2018</v>
       </c>
       <c r="B18" t="n">
-        <v>20.65048599243164</v>
+        <v>21.9976921081543</v>
       </c>
       <c r="C18" t="n">
-        <v>19.83220100402832</v>
+        <v>21.01174545288086</v>
       </c>
       <c r="D18" t="n">
-        <v>21.46877098083496</v>
+        <v>22.98363876342773</v>
       </c>
     </row>
     <row r="19">
@@ -1133,13 +1063,13 @@
         <v>2019</v>
       </c>
       <c r="B19" t="n">
-        <v>20.70273208618164</v>
+        <v>22.10149765014648</v>
       </c>
       <c r="C19" t="n">
-        <v>19.22993850708008</v>
+        <v>20.64786529541016</v>
       </c>
       <c r="D19" t="n">
-        <v>22.1755256652832</v>
+        <v>23.55513000488281</v>
       </c>
     </row>
     <row r="20">
@@ -1147,13 +1077,13 @@
         <v>2020</v>
       </c>
       <c r="B20" t="n">
-        <v>20.64135360717773</v>
+        <v>22.1085319519043</v>
       </c>
       <c r="C20" t="n">
-        <v>19.33526611328125</v>
+        <v>20.22008895874023</v>
       </c>
       <c r="D20" t="n">
-        <v>21.94744110107422</v>
+        <v>23.99697494506836</v>
       </c>
     </row>
     <row r="21">
@@ -1161,13 +1091,13 @@
         <v>2021</v>
       </c>
       <c r="B21" t="n">
-        <v>20.70661354064941</v>
+        <v>22.05545234680176</v>
       </c>
       <c r="C21" t="n">
-        <v>19.47994804382324</v>
+        <v>20.42793846130371</v>
       </c>
       <c r="D21" t="n">
-        <v>21.93327903747559</v>
+        <v>23.6829662322998</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1146,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>20.73259544372559</v>
+        <v>19.70818576812744</v>
       </c>
       <c r="C2" t="n">
-        <v>19.79761703087359</v>
+        <v>19.20469396540155</v>
       </c>
       <c r="D2" t="n">
-        <v>21.66757385657758</v>
+        <v>20.21167757085334</v>
       </c>
     </row>
     <row r="3">
@@ -1230,13 +1160,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>19.86758041381836</v>
+        <v>21.05579605102539</v>
       </c>
       <c r="C3" t="n">
-        <v>19.36849908047726</v>
+        <v>20.36476207608288</v>
       </c>
       <c r="D3" t="n">
-        <v>20.36666174715946</v>
+        <v>21.7468300259679</v>
       </c>
     </row>
     <row r="4">
@@ -1244,13 +1174,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>20.90211486816406</v>
+        <v>21.41670570373535</v>
       </c>
       <c r="C4" t="n">
-        <v>20.26321213729071</v>
+        <v>20.96233732747056</v>
       </c>
       <c r="D4" t="n">
-        <v>21.54101759903742</v>
+        <v>21.87107408000015</v>
       </c>
     </row>
     <row r="5">
@@ -1258,13 +1188,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>21.58684177398682</v>
+        <v>21.207444190979</v>
       </c>
       <c r="C5" t="n">
-        <v>20.99394199984836</v>
+        <v>20.47256872147974</v>
       </c>
       <c r="D5" t="n">
-        <v>22.17974154812527</v>
+        <v>21.94231966047827</v>
       </c>
     </row>
     <row r="6">
@@ -1272,13 +1202,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>20.71696319580078</v>
+        <v>21.25539493560791</v>
       </c>
       <c r="C6" t="n">
-        <v>20.02796898068901</v>
+        <v>19.85993382598132</v>
       </c>
       <c r="D6" t="n">
-        <v>21.40595741091255</v>
+        <v>22.6508560452345</v>
       </c>
     </row>
   </sheetData>
